--- a/src/main/resources/com/relative/QuskiAutomotriz/Matrices/Resultados.xlsx
+++ b/src/main/resources/com/relative/QuskiAutomotriz/Matrices/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4168ccd2be4a7b9a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="6_{77C7D444-0FF0-45AA-8318-72416210988E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F554587F-9F12-4073-8BAE-B7981955C6D9}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="6_{77C7D444-0FF0-45AA-8318-72416210988E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7E5F6D63-20F5-4105-9E96-CDE91366A82C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>RuleSet</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>GRUPO REGLAS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>GrupoResultados</t>
@@ -158,68 +155,74 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resultado.setValor("$param");
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PREAPROBACION</t>
+  </si>
+  <si>
+    <t>REQUIERE_CODEUDOR</t>
+  </si>
+  <si>
+    <t>LISTA_REQUISITOS</t>
+  </si>
+  <si>
+    <t>SIN POLITICAS INCUMPLIDAS</t>
+  </si>
+  <si>
+    <t>CON POLITICAS INCUMPLIDAS</t>
+  </si>
+  <si>
+    <t>cliente.getMonths()&gt;=(Integer.valueOf($param))</t>
+  </si>
+  <si>
+    <t>cliente.getMonths()&lt;=(Integer.valueOf($param))</t>
+  </si>
+  <si>
+    <t>AÑO MINIMO EN MESES</t>
+  </si>
+  <si>
+    <t>AÑO MAXIMO EN MESES</t>
+  </si>
+  <si>
+    <t>INGRESO DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>com.relative.QuskiAutomotriz.ObjetosNegocio.Cliente,com.relative.QuskiAutomotriz.ObjetosNegocio.Resultado,com.relative.QuskiAutomotriz.ObjetosNegocio.VariablesNegocio</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getResultado().add(resultado);</t>
+  </si>
+  <si>
+    <t>DECLARACION DE VARIABLES</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getCodigosPoliticas().size() &gt;= Integer.valueOf($param)</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getCodigosPoliticas().size()==Integer.valueOf($param)</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getCodigosPoliticas().size()&gt;Integer.valueOf($param)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultado.setValor($param);
 </t>
   </si>
   <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PREAPROBACION</t>
-  </si>
-  <si>
-    <t>REQUIERE_CODEUDOR</t>
-  </si>
-  <si>
-    <t>LISTA_REQUISITOS</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SIN POLITICAS INCUMPLIDAS</t>
-  </si>
-  <si>
-    <t>CON POLITICAS INCUMPLIDAS</t>
-  </si>
-  <si>
-    <t>cliente.getMonths()&gt;=(Integer.valueOf($param))</t>
-  </si>
-  <si>
-    <t>cliente.getMonths()&lt;=(Integer.valueOf($param))</t>
-  </si>
-  <si>
-    <t>AÑO MINIMO EN MESES</t>
-  </si>
-  <si>
-    <t>AÑO MAXIMO EN MESES</t>
-  </si>
-  <si>
-    <t>INGRESO DE RESULTADOS</t>
-  </si>
-  <si>
-    <t>com.relative.QuskiAutomotriz.ObjetosNegocio.Cliente,com.relative.QuskiAutomotriz.ObjetosNegocio.Resultado,com.relative.QuskiAutomotriz.ObjetosNegocio.VariablesNegocio</t>
-  </si>
-  <si>
-    <t>variablesNegocio.getResultado().add(resultado);</t>
-  </si>
-  <si>
-    <t>DECLARACION DE VARIABLES</t>
-  </si>
-  <si>
-    <t>variablesNegocio.getCodigosPoliticas().size() &gt;= Integer.valueOf($param)</t>
-  </si>
-  <si>
-    <t>variablesNegocio.getCodigosPoliticas().size()==Integer.valueOf($param)</t>
-  </si>
-  <si>
-    <t>variablesNegocio.getCodigosPoliticas().size()&gt;Integer.valueOf($param)</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>cliente.getRequisitos()</t>
+  </si>
+  <si>
+    <t>"S"</t>
+  </si>
+  <si>
+    <t>"N"</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1002,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1045,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1058,7 +1061,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1119,28 +1122,28 @@
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1151,114 +1154,114 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>21</v>
+      <c r="I9" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
       <c r="H11" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="13">
         <v>216</v>
@@ -1272,21 +1275,21 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="13">
         <v>300</v>
@@ -1298,13 +1301,13 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
